--- a/Automação Canva/arquivo.xlsx
+++ b/Automação Canva/arquivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Informatica\Desktop\GitHub\Portfolio\Automação Canva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B3912-0944-436E-9B34-420FF46C5195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ADD685-7E71-45FF-9A26-E0BE6139FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7738BDCA-0EC0-4005-B1BA-53ADE0E899AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{7738BDCA-0EC0-4005-B1BA-53ADE0E899AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Gustavo Rodrigues Pereira</t>
   </si>
@@ -264,6 +264,57 @@
   </si>
   <si>
     <t>Yzlia Rodrigues Avila Torres</t>
+  </si>
+  <si>
+    <t>Neuma / Compae</t>
+  </si>
+  <si>
+    <t>Thaís / Sansung</t>
+  </si>
+  <si>
+    <t>Thaís / Positivo</t>
+  </si>
+  <si>
+    <t>Paula / Dell</t>
+  </si>
+  <si>
+    <t>Adriano / HP</t>
+  </si>
+  <si>
+    <t>Adriele / Lenovo</t>
+  </si>
+  <si>
+    <t>Daniel / Sansung</t>
+  </si>
+  <si>
+    <t>Clarice / Sansgung</t>
+  </si>
+  <si>
+    <t>Crenilda</t>
+  </si>
+  <si>
+    <t>Antero / Lenovo</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura </t>
+  </si>
+  <si>
+    <t>Marise / Lenovo</t>
+  </si>
+  <si>
+    <t>Giovany / Sansung</t>
+  </si>
+  <si>
+    <t>Jõao Victor / Positivo</t>
+  </si>
+  <si>
+    <t>Evânia</t>
+  </si>
+  <si>
+    <t>Livia</t>
   </si>
 </sst>
 </file>
@@ -319,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +410,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32DEEF-F499-42B0-B3C0-2D0AF708AC7A}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +680,7 @@
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -642,8 +693,11 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -656,8 +710,11 @@
       <c r="D2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -670,8 +727,11 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -684,8 +744,11 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -698,8 +761,11 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -712,8 +778,11 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -726,8 +795,11 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -740,8 +812,11 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -754,8 +829,11 @@
       <c r="D9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -768,8 +846,11 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -782,8 +863,11 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -796,8 +880,11 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -810,8 +897,11 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -824,8 +914,11 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -838,8 +931,11 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -849,8 +945,11 @@
       <c r="D16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -860,8 +959,11 @@
       <c r="D17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -871,38 +973,41 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>

--- a/Automação Canva/arquivo.xlsx
+++ b/Automação Canva/arquivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Informatica\Desktop\GitHub\Portfolio\Automação Canva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8369DB6-5E78-4A9C-9D10-ACD8683E6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EAAB62-6183-4420-B9F0-E5B5982DF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13230" xr2:uid="{7738BDCA-0EC0-4005-B1BA-53ADE0E899AF}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B19" sqref="B1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Automação Canva/arquivo.xlsx
+++ b/Automação Canva/arquivo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Informatica\Desktop\GitHub\Portfolio\Automação Canva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EAAB62-6183-4420-B9F0-E5B5982DF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BDDAB-4D2D-4361-8EE9-5BB367637223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13230" xr2:uid="{7738BDCA-0EC0-4005-B1BA-53ADE0E899AF}"/>
   </bookViews>
@@ -36,85 +36,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>Ronaldo Emanuel Duarte Santos</t>
-  </si>
-  <si>
-    <t>Francisco Murilo Bezerra de Sousa</t>
-  </si>
-  <si>
-    <t>Paulo Gabriel do N. Rodrigues</t>
-  </si>
-  <si>
-    <t>6ºA</t>
-  </si>
-  <si>
-    <t>6ºB</t>
-  </si>
-  <si>
-    <t>6ºC</t>
-  </si>
-  <si>
-    <t>7ºA</t>
-  </si>
-  <si>
-    <t>7ºB</t>
-  </si>
-  <si>
-    <t>7ºC</t>
-  </si>
-  <si>
-    <t>8ºA</t>
-  </si>
-  <si>
-    <t>8ºB</t>
-  </si>
-  <si>
-    <t>Mariana Martins Gomes</t>
-  </si>
-  <si>
-    <t>Davi Lucas Souza Cardoso</t>
-  </si>
-  <si>
-    <t>Yohanna Carneiro Pinto</t>
-  </si>
-  <si>
-    <t>Ana Marielly Araújo de Mesquita</t>
-  </si>
-  <si>
-    <t>Luiz Fernando Melo Feijão</t>
-  </si>
-  <si>
-    <t>Ana Júlia Rodrigues Aragão</t>
-  </si>
-  <si>
-    <t>Rayssa Lira Boriz</t>
-  </si>
-  <si>
-    <t>Francisco Ricardo Gomes de Sá</t>
-  </si>
-  <si>
-    <t>Maria Eduarda Araújo Soares</t>
-  </si>
-  <si>
-    <t>Kaio Marques Borges de Sousa</t>
-  </si>
-  <si>
-    <t>Kalleb Rosberg Martins da Silva</t>
-  </si>
-  <si>
-    <t>Sarah de Oliveira Carvalho</t>
-  </si>
-  <si>
-    <t>Maria Vitória Cruz Reis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+  <si>
+    <t>FRANCISCO MADSON</t>
+  </si>
+  <si>
+    <t>CARLOS RENAN</t>
+  </si>
+  <si>
+    <t>WERVETON GOMES</t>
+  </si>
+  <si>
+    <t>FRANCISCO JOSIMAR</t>
+  </si>
+  <si>
+    <t>DAVI DE PAIVA</t>
+  </si>
+  <si>
+    <t>YOHANNA CARNEIRO</t>
+  </si>
+  <si>
+    <t>LUIZ FERNANDO</t>
+  </si>
+  <si>
+    <t>RONALDO EMANUEL</t>
+  </si>
+  <si>
+    <t>FRANCISCO JARDSON</t>
+  </si>
+  <si>
+    <t>1º Colocado</t>
+  </si>
+  <si>
+    <t>2º Colocado</t>
+  </si>
+  <si>
+    <t>3º Colocado</t>
+  </si>
+  <si>
+    <t>4º Colocado</t>
+  </si>
+  <si>
+    <t>5º Colocado</t>
+  </si>
+  <si>
+    <t>6º Colocado</t>
+  </si>
+  <si>
+    <t>7º Colocado</t>
+  </si>
+  <si>
+    <t>8º Colocado</t>
+  </si>
+  <si>
+    <t>9º Colocado</t>
+  </si>
+  <si>
+    <t>GABRIEL LUCAS</t>
+  </si>
+  <si>
+    <t>EMANOEL MESSIAS</t>
+  </si>
+  <si>
+    <t>FRANCISCO LUCAS</t>
+  </si>
+  <si>
+    <t>MARIA BEATRIZ</t>
+  </si>
+  <si>
+    <t>SARA ISRAELA</t>
+  </si>
+  <si>
+    <t>MARCOS DAVI</t>
+  </si>
+  <si>
+    <t>GABRIELLY SANTOS</t>
+  </si>
+  <si>
+    <t>FRANCISCO ERIC</t>
+  </si>
+  <si>
+    <t>6º ANO 'C'</t>
+  </si>
+  <si>
+    <t>7º ANO 'B'</t>
+  </si>
+  <si>
+    <t>9º ANO 'B'</t>
+  </si>
+  <si>
+    <t>7º ANO 'A'</t>
+  </si>
+  <si>
+    <t>9º ANO 'A'</t>
+  </si>
+  <si>
+    <t>6º ANO 'A'</t>
+  </si>
+  <si>
+    <t>9º ANO 'C'</t>
+  </si>
+  <si>
+    <t>9º ANO 'D'</t>
+  </si>
+  <si>
+    <t>NIVEL I</t>
+  </si>
+  <si>
+    <t>NIVEL II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +161,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,149 +518,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32DEEF-F499-42B0-B3C0-2D0AF708AC7A}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B1:B19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Automação Canva/arquivo.xlsx
+++ b/Automação Canva/arquivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Informatica\Desktop\GitHub\Portfolio\Automação Canva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BDDAB-4D2D-4361-8EE9-5BB367637223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B894251-35ED-408F-94C9-C6561626528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13230" xr2:uid="{7738BDCA-0EC0-4005-B1BA-53ADE0E899AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>FRANCISCO MADSON</t>
   </si>
@@ -144,13 +144,52 @@
   </si>
   <si>
     <t>NIVEL II</t>
+  </si>
+  <si>
+    <t>11º Colocado</t>
+  </si>
+  <si>
+    <t>8º ANO 'B'</t>
+  </si>
+  <si>
+    <t>12º Colocado</t>
+  </si>
+  <si>
+    <t>10º Colocado</t>
+  </si>
+  <si>
+    <t>6º ANO 'B'</t>
+  </si>
+  <si>
+    <t>7º ANO 'C'</t>
+  </si>
+  <si>
+    <t>MARIA STEFANYA</t>
+  </si>
+  <si>
+    <t>PEDRO JARBAS</t>
+  </si>
+  <si>
+    <t>JAMES DE SOUSA</t>
+  </si>
+  <si>
+    <t>MARIA CLARA</t>
+  </si>
+  <si>
+    <t>MARIA SOFIA</t>
+  </si>
+  <si>
+    <t>GABRIEL TRAJANO</t>
+  </si>
+  <si>
+    <t>KELLISON BRENO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,14 +206,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,10 +231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32DEEF-F499-42B0-B3C0-2D0AF708AC7A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" activeCellId="10" sqref="A22:XFD22 A20:XFD20 A18:XFD18 A16:XFD16 A14:XFD14 A12:XFD12 A10:XFD10 A8:XFD8 A6:XFD6 A4:XFD4 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -545,230 +575,303 @@
       <c r="D1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
